--- a/public/STAT_RANKING3.xlsx
+++ b/public/STAT_RANKING3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\VueJS\calendar02\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440BB7FA-663B-4253-B3F8-968A72030FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC12D3-DA4F-4FB8-B944-9D8ED2DCF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="67">
   <si>
     <t>top</t>
   </si>
@@ -90,15 +90,6 @@
     <t>Top500</t>
   </si>
   <si>
-    <t>Least3000</t>
-  </si>
-  <si>
-    <t>Least2500</t>
-  </si>
-  <si>
-    <t>Least2000</t>
-  </si>
-  <si>
     <t>Top10</t>
   </si>
   <si>
@@ -124,6 +115,120 @@
   </si>
   <si>
     <t>Least20</t>
+  </si>
+  <si>
+    <t>พลังอ่อนที่สุด</t>
+  </si>
+  <si>
+    <t>พลังอ่อนกว่าค่าเฉลี่ย</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 1 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังตัวตนแรงที่สุด ทำให้คุณมั่นใจในตัวเองมากเกินไปจนเกิดอคติและไม่เปิดรับข้อมูลที่ขัดใจ จึงควรหยุดทบทวนก่อนตัดสินใจเพื่อลดความเอนเอียง.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 30 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังตัวตนโดดเด่น ทำให้คุณเชื่อในความคิดของตัวเองมากเกินไปจนมองข้ามมุมมองอื่น จึงควรตั้งใจรับฟังความคิดเห็นเพื่อป้องกันอคติ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 150 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังตัวตนค่อนข้างแรง ทำให้คุณมั่นใจในเส้นทางของตัวเองมากจนเกิดอคติเล็ก ๆ และพลาดรายละเอียดได้ง่าย จึงควรตรวจสอบข้อมูลให้ครบถ้วนก่อนเดินหน้า.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 500 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังตัวตนสูงกว่าปกติ ทำให้คุณมั่นใจในตัวเองมากขึ้นแต่เสี่ยงไม่ฟังคำแนะนำ จึงควรเปิดพื้นที่ให้ข้อมูลใหม่ ๆ เข้ามาเพื่อป้องกันอคติ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มที่พลังตัวตนอ่อนกว่าค่าเฉลี่ยในรอบ 10 ปี (decadeInterval) ทำให้คุณไม่มั่นใจในตัวเองง่ายและลังเลเมื่อจะตัดสินใจ จึงควรเริ่มเสริมความมั่นใจด้วยการทำสิ่งที่ถนัดเพื่อค่อย ๆ เพิ่มพลังภายในกลับมา.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มท้ายสุดของรอบ 10 ปี (decadeInterval) ที่พลังตัวตนอ่อนมาก ทำให้ขาดความเชื่อมั่นในตัวเองและตัดสินใจผิดจังหวะง่าย จึงควรหลีกเลี่ยงงานสำคัญและมุ่งพัฒนาความมั่นใจอย่างเป็นระบบ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 1 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสนับสนุนแรงที่สุด ทำให้คุณได้รับความช่วยเหลือจากคนรอบตัวง่ายจนเคยชินและพึ่งพาคนอื่นมากเกินไป จึงควรรักษาการตัดสินใจด้วยตัวเองและไม่ฝากชีวิตไว้กับแรงหนุนจากภายนอกมากเกินไป.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 30 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสนับสนุนสูง ทำให้มักมีคนช่วยเหลือแต่ก็เสี่ยงทำให้บทบาทของคุณจางลง จึงควรย้ำจุดยืนของตัวเองและไม่ถอยออกจากเวทีเพียงเพราะมีคนคอยรองรับ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 150 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสนับสนุนเด่น ทำให้จัดการเรื่องต่าง ๆ ได้ง่ายขึ้นแต่ก็มีโอกาสเคยชินกับความสะดวก จึงควรแบ่งสัดส่วนระหว่างการขอความช่วยเหลือกับการลงมือเองให้สมดุล.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 500 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสนับสนุนสูงกว่าค่าเฉลี่ย ทำให้มีแรงหนุนมากกว่าคนทั่วไปแต่ก็เสี่ยงคาดหวังความช่วยเหลือ จึงควรระวังไม่ให้ความเคยชินกับการพึ่งพาผู้อื่นบั่นทอนความเข้มแข็งภายใน.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มที่พลังสนับสนุนอ่อนกว่าค่าเฉลี่ยในรอบ 10 ปี (decadeInterval) ทำให้ไม่ค่อยได้รับความช่วยเหลือและต้องจัดการหลายอย่างด้วยตัวเอง จึงควรวางแผนล่วงหน้าและเสริมทักษะให้ตนเองพึ่งพาตัวเองได้มากขึ้น.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มท้ายสุดของรอบ 10 ปี (decadeInterval) ที่พลังสนับสนุนอ่อนมาก ทำให้แทบไม่ได้รับแรงหนุนจากภายนอกและรู้สึกโดดเดี่ยวง่าย จึงควรลดความคาดหวังต่อผู้อื่นและมุ่งสร้างฐานชีวิตที่มั่นคงจากความสามารถของตัวเอง.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 1 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Output ล้นที่สุด ทำให้คุณพูด คิด และแสดงออกมากเกินไปจนหลุดขอบเขต จึงควรตรวจสอบให้ดีก่อนเปิดเผยข้อมูลหรือแสดงความเห็นสำคัญ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 30 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Output สูง ทำให้คุณสื่อสารเก่งและคิดไวแต่เสี่ยงเผลอพูดเกินหรือใจร้อน จึงควรชะลอคำพูดลงเล็กน้อยเพื่อไม่ให้กระทบคนรอบตัว.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 150 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Output เด่น ทำให้ไอเดียไหลลื่นแต่ก็อาจคิดเร็วกว่าเหตุผล จึงควรเช็กความจริงและผลกระทบก่อนลงมือ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 500 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Output สูงกว่าค่าเฉลี่ย ทำให้คุณกล้าแสดงออกมากกว่าคนทั่วไปแต่เสี่ยงพูดโดยไม่ทันกรอง จึงควรทบทวนใจความก่อนสื่อสาร.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มที่พลัง Output อ่อนกว่าค่าเฉลี่ยในรอบ 10 ปี (decadeInterval) ทำให้คุณสื่อสารไม่เต็มที่หรือไม่กล้าแสดงออก จึงควรเตรียมตัวล่วงหน้าและฝึกพูดทีละขั้นเพื่อเพิ่มความลื่นไหล.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มท้ายสุดของรอบ 10 ปี (decadeInterval) ที่พลัง Output อ่อนมาก ทำให้คิดไม่ออก พูดไม่ออก หรือสื่อสารได้ไม่ตรงใจ จึงควรใช้วิธีเขียนทบทวนความคิดและฝึกสื่อสารจากเรื่องเล็ก ๆ ก่อน.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 1 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Wealth ล้นที่สุด ทำให้คุณหมกมุ่นกับผลลัพธ์และความสำเร็จมากเกินไปจนกดดันตัวเอง จึงควรผ่อนความคาดหวังและแบ่งเป้าหมายเป็นช่วงสั้น ๆ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 30 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Wealth สูง ทำให้คุณจริงจังกับเรื่องเป้าหมายและผลตอบแทนจนลืมพัก จึงควรจัดสมดุลงานกับชีวิตส่วนตัวให้ดี.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 150 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Wealth เด่น ทำให้คุณผลักดันตัวเองหนักเพื่อให้ได้ผลลัพธ์ จึงควรสังเกตสัญญาณความเครียดและไม่ฝืนเกินกำลัง.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 500 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลัง Wealth สูงกว่าค่าเฉลี่ย ทำให้คุณโฟกัสเป้าหมายเก่งแต่เสี่ยงคิดถึงผลประโยชน์มากเกินไป จึงควรรักษาสมดุลระหว่างคุณค่าภายในกับผลลัพธ์ภายนอก.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มที่พลัง Wealth อ่อนกว่าค่าเฉลี่ยในรอบ 10 ปี (decadeInterval) ทำให้แรงผลักดันด้านผลลัพธ์และความสำเร็จน้อย จึงควรตั้งเป้าหมายเล็ก ๆ ที่ทำได้จริงเพื่อสร้างแรงขับให้ตัวเอง.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มท้ายสุดของรอบ 10 ปี (decadeInterval) ที่พลัง Wealth อ่อนมาก ทำให้การเคลื่อนตัวด้านผลลัพธ์ช้ามากหรือติดขัด จึงควรหลีกเลี่ยงการเสี่ยงเกินไปและเน้นการวางรากฐานระยะยาวแทน.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 1 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังควบคุมล้นที่สุด ทำให้คุณเคร่งครัดและกดดันทั้งตัวเองและคนอื่นมากเกินไป จึงควรผ่อนมาตรฐานลงเล็กน้อยเพื่อให้ใจและงานหายใจได้.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 30 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังควบคุมสูง ทำให้คุณจริงจังกับกฎระเบียบจนยืดหยุ่นยาก จึงควรเปิดช่องให้ปรับเปลี่ยนได้บ้างตามสถานการณ์.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 150 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังควบคุมเด่น ทำให้คุณรับผิดชอบสูงแต่ก็แบกภาระมาก จึงควรแบ่งหน้าที่และไม่รับทุกอย่างไว้คนเดียว.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 500 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังควบคุมสูงกว่าค่าเฉลี่ย ทำให้คุณมีวินัยดีแต่เสี่ยงเข้มงวดเกินไป จึงควรสังเกตว่าเมื่อใดควรผ่อนกฎเพื่อรักษาบรรยากาศ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มท้ายสุดของรอบ 10 ปี (decadeInterval) ที่พลังควบคุมอ่อนมาก ทำให้ขาดทิศทางและหลุดกรอบได้ง่าย จึงควรสร้างกฎพื้นฐานให้ตัวเองและขอให้ผู้อื่นช่วยเตือนในช่วงสำคัญ.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มที่พลังควบคุมอ่อนกว่าค่าเฉลี่ยในรอบ 10 ปี (decadeInterval) ทำให้วินัยและกรอบชีวิตไม่ชัดเจน จึงควรเริ่มจัดตารางงานง่าย ๆ และยึดตามให้ได้อย่างต่อเนื่อง.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 1 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสมดุลแข็งแรงที่สุด ทำให้ชีวิตมีจังหวะที่นิ่ง มองสถานการณ์ได้ชัดและตัดสินใจอย่างมีเหตุผล จึงควรรักษาวิถีชีวิตปัจจุบันและหลีกเลี่ยงการทำอะไรสุดโต่ง.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 30 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสมดุลโดดเด่น ทำให้คุณรับมือเรื่องต่าง ๆ ได้พอดีทั้งด้านเหตุผลและอารมณ์ จึงควรรักษาจังหวะการใช้ชีวิตแบบนี้ต่อไป.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 150 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสมดุลดี ส่งผลให้ภาพรวมชีวิตราบรื่นและไม่สวิงเกินไป จึงควรระวังแค่ไม่เพิ่มภาระจนเกินขีดที่ควบคุมได้.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่ม Top 500 คนแรกของรอบ 10 ปี (decadeInterval) ที่พลังสมดุลยังอยู่ในระดับดี ช่วยให้คุณตั้งหลักได้มั่นคงและปรับตัวกับการเปลี่ยนแปลงได้เหมาะสม.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มท้ายสุดของรอบ 10 ปี (decadeInterval) ที่พลังสมดุลอ่อนมาก ทำให้ภายในไม่มั่นคงและอารมณ์เหวี่ยงง่าย จึงควรหลีกเลี่ยงภาระหนักและให้เวลากับการเยียวยาและสร้างเสถียรภาพใหม่ทีละขั้น.</t>
+  </si>
+  <si>
+    <t>วันเกิดของคุณอยู่ในกลุ่มที่พลังสมดุลอ่อนกว่าค่าเฉลี่ยในรอบ 10 ปี (decadeInterval) ทำให้อารมณ์และจังหวะชีวิตแปรปรวนง่าย จึงควรชะลอการตัดสินใจใหญ่และจัดระบบชีวิตให้เรียบง่ายขึ้น.</t>
   </si>
 </sst>
 </file>
@@ -451,17 +556,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="13.44140625" style="1"/>
-    <col min="7" max="7" width="134.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="13.44140625" style="1"/>
+    <col min="1" max="1" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16" style="1"/>
+    <col min="7" max="7" width="102.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -506,6 +612,9 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -526,6 +635,9 @@
       <c r="F3" s="1">
         <v>15</v>
       </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -546,6 +658,9 @@
       <c r="F4" s="1">
         <v>33</v>
       </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -566,10 +681,13 @@
       <c r="F5" s="1">
         <v>45</v>
       </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>3001</v>
@@ -586,13 +704,16 @@
       <c r="F6" s="1">
         <v>63</v>
       </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>2501</v>
+        <v>2001</v>
       </c>
       <c r="C7" s="1">
         <v>3000</v>
@@ -606,36 +727,42 @@
       <c r="F7" s="1">
         <v>81</v>
       </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>2001</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -644,18 +771,21 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -664,18 +794,21 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -684,18 +817,21 @@
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
-        <v>151</v>
+        <v>3001</v>
       </c>
       <c r="C12" s="1">
-        <v>500</v>
+        <v>9999</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -704,18 +840,21 @@
         <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="C13" s="1">
-        <v>9999</v>
+        <v>3000</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -724,58 +863,67 @@
         <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>62</v>
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>2501</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>2001</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>98</v>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -784,18 +932,21 @@
         <v>9</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -804,18 +955,21 @@
         <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>31</v>
+        <v>3001</v>
       </c>
       <c r="C18" s="1">
-        <v>150</v>
+        <v>9999</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -824,18 +978,21 @@
         <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>151</v>
+        <v>2001</v>
       </c>
       <c r="C19" s="1">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -844,218 +1001,251 @@
         <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>151</v>
+      </c>
+      <c r="C23" s="1">
+        <v>500</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
         <v>3001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C24" s="1">
         <v>9999</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2501</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C25" s="1">
         <v>3000</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C27" s="1">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B28" s="1">
         <v>31</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C28" s="1">
         <v>150</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B29" s="1">
         <v>151</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C29" s="1">
         <v>500</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>3001</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C30" s="1">
         <v>9999</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2501</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -1064,18 +1254,21 @@
         <v>11</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -1084,118 +1277,136 @@
         <v>11</v>
       </c>
       <c r="F31" s="1">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C34" s="1">
         <v>150</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>151</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C35" s="1">
         <v>500</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
         <v>3001</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <v>9999</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2501</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C37" s="1">
         <v>3000</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1204,138 +1415,141 @@
         <v>12</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1">
-        <v>31</v>
-      </c>
       <c r="C39" s="1">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
-        <v>3001</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
-        <v>2501</v>
+        <v>301</v>
       </c>
       <c r="C42" s="1">
-        <v>3000</v>
+        <v>999</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
-        <v>2001</v>
+        <v>251</v>
       </c>
       <c r="C43" s="1">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -1344,138 +1558,138 @@
         <v>7</v>
       </c>
       <c r="F44" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="B47" s="1">
         <v>11</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>25</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1">
         <v>26</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <v>50</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="1">
-        <v>301</v>
-      </c>
-      <c r="C48" s="1">
-        <v>999</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C49" s="1">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C50" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -1484,138 +1698,138 @@
         <v>8</v>
       </c>
       <c r="F51" s="1">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1">
         <v>24</v>
-      </c>
-      <c r="B53" s="1">
-        <v>11</v>
-      </c>
-      <c r="C53" s="1">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
         <v>25</v>
       </c>
-      <c r="B54" s="1">
-        <v>26</v>
-      </c>
-      <c r="C54" s="1">
-        <v>50</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1">
         <v>26</v>
       </c>
-      <c r="B55" s="1">
-        <v>301</v>
-      </c>
       <c r="C55" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C56" s="1">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C57" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -1624,138 +1838,138 @@
         <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1">
         <v>25</v>
       </c>
-      <c r="B61" s="1">
-        <v>26</v>
-      </c>
-      <c r="C61" s="1">
-        <v>50</v>
-      </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1">
         <v>26</v>
       </c>
-      <c r="B62" s="1">
-        <v>301</v>
-      </c>
       <c r="C62" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C63" s="1">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -1764,138 +1978,138 @@
         <v>10</v>
       </c>
       <c r="F65" s="1">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="1">
-        <v>25</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F67" s="1">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="1">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1">
         <v>25</v>
       </c>
-      <c r="B68" s="1">
-        <v>26</v>
-      </c>
-      <c r="C68" s="1">
-        <v>50</v>
-      </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1">
         <v>26</v>
       </c>
-      <c r="B69" s="1">
-        <v>301</v>
-      </c>
       <c r="C69" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C70" s="1">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B71" s="1">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C71" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -1904,138 +2118,138 @@
         <v>11</v>
       </c>
       <c r="F72" s="1">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B74" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
         <v>25</v>
       </c>
-      <c r="B75" s="1">
-        <v>26</v>
-      </c>
-      <c r="C75" s="1">
-        <v>50</v>
-      </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1">
         <v>26</v>
       </c>
-      <c r="B76" s="1">
-        <v>301</v>
-      </c>
       <c r="C76" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B77" s="1">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C77" s="1">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B78" s="1">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C78" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -2044,726 +2258,606 @@
         <v>12</v>
       </c>
       <c r="F79" s="1">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F80" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B81" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F81" s="1">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F82" s="1">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="1">
         <v>26</v>
       </c>
-      <c r="B83" s="1">
-        <v>301</v>
-      </c>
       <c r="C83" s="1">
-        <v>999</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84" s="1">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F84" s="1">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B88" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C88" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B89" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B90" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90" s="1">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" s="1">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" s="1">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" s="1">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B95" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F96" s="1">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B98" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F98" s="1">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="1">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B102" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B103" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C103" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B104" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C104" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B105" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1">
         <v>25</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="1">
-        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B107" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B108" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C108" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" s="1">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B109" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="1">
-        <v>20</v>
-      </c>
-      <c r="C110" s="1">
-        <v>25</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1">
-        <v>5</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="1">
-        <v>6</v>
-      </c>
-      <c r="C113" s="1">
-        <v>10</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" s="1">
-        <v>26</v>
-      </c>
-      <c r="C114" s="1">
-        <v>31</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" s="1">
-        <v>20</v>
-      </c>
-      <c r="C115" s="1">
-        <v>25</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="1">
         <v>109</v>
       </c>
     </row>
